--- a/Excel Sheets/Maddie data.xlsx
+++ b/Excel Sheets/Maddie data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sarah\Documents\GitHub\meta-analysis\Excel Sheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/madisonpleasants/Documents/GitHub/meta-analysis/Excel Sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F12FAA1A-46A8-4B80-9F98-1BA54288382F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD1E658E-440E-404A-BE68-69567ED76DD6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{E04C1F89-8C19-4E1E-BA1D-D9BFA46D1DC3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{E04C1F89-8C19-4E1E-BA1D-D9BFA46D1DC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="233">
   <si>
     <t>Authors</t>
   </si>
@@ -390,13 +390,370 @@
   </si>
   <si>
     <t>LANDMANN, A; KOLLINSKY, C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amatitlania siquia </t>
+  </si>
+  <si>
+    <t>ventral</t>
+  </si>
+  <si>
+    <t>orange  (measured by size of patch, do we still use this paper??)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anolis carolinensis </t>
+  </si>
+  <si>
+    <t>Andrews and Summers  1996</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>&lt;0.001</t>
+  </si>
+  <si>
+    <t>Anderson et al 2016</t>
+  </si>
+  <si>
+    <t>Melanchromis auratus</t>
+  </si>
+  <si>
+    <t>Andreies and Nellisen 1990</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salvelinus alpinus </t>
+  </si>
+  <si>
+    <t>Juvenile</t>
+  </si>
+  <si>
+    <t>caratenoid</t>
+  </si>
+  <si>
+    <t>Backstrom et al 2015 (1)</t>
+  </si>
+  <si>
+    <t>Backstrom et al 2015 (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right side body </t>
+  </si>
+  <si>
+    <t>no spots</t>
+  </si>
+  <si>
+    <t>spots (???)</t>
+  </si>
+  <si>
+    <t>Bailey et al 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papio anubis </t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>grey/purple</t>
+  </si>
+  <si>
+    <t>rump</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crotaphytus collari </t>
+  </si>
+  <si>
+    <t>dorsal</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>bright</t>
+  </si>
+  <si>
+    <t>Baird et al 1997</t>
+  </si>
+  <si>
+    <t>Biard et al 2013</t>
+  </si>
+  <si>
+    <t>Intellagama lesueurii</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Baird et al 2003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnemidophorus murinus </t>
+  </si>
+  <si>
+    <t>mating season</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>breeding</t>
+  </si>
+  <si>
+    <t>wilcoxon</t>
+  </si>
+  <si>
+    <t>Balzarini et al 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neolamprologus pulcher </t>
+  </si>
+  <si>
+    <t>no stripes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">light stripes </t>
+  </si>
+  <si>
+    <t>dark stripes</t>
+  </si>
+  <si>
+    <t>scored</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Baran and Streelman 2020</t>
+  </si>
+  <si>
+    <t>Barcelo-Serra et al 2020</t>
+  </si>
+  <si>
+    <t>Barlow 1992</t>
+  </si>
+  <si>
+    <t>Barlow et al 2975</t>
+  </si>
+  <si>
+    <t>Barlow and Mckaye 1982</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zonotrichia albicollis </t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>tan</t>
+  </si>
+  <si>
+    <t>troat</t>
+  </si>
+  <si>
+    <t>winter</t>
+  </si>
+  <si>
+    <t>Cichlasoma citrinellum</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>juvenile</t>
+  </si>
+  <si>
+    <t># attacks</t>
+  </si>
+  <si>
+    <t>Barlow and Wallach 1976 -1</t>
+  </si>
+  <si>
+    <t>Barlow and Wallach 1976-2</t>
+  </si>
+  <si>
+    <t>Barlow and Wallach 1976-3</t>
+  </si>
+  <si>
+    <t>friedman</t>
+  </si>
+  <si>
+    <t>0.031&gt;P&gt;0.019</t>
+  </si>
+  <si>
+    <t>flee/ hour</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> attack/ hour</t>
+  </si>
+  <si>
+    <t>contest/hour</t>
+  </si>
+  <si>
+    <t>Barlow and Siri 1994</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="AdvOTb92eb7df.I"/>
+      </rPr>
+      <t>Malurus melanocephalus</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="AdvOTb92eb7df.I"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>auxillary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">red/black </t>
+  </si>
+  <si>
+    <t>plumage</t>
+  </si>
+  <si>
+    <t>males</t>
+  </si>
+  <si>
+    <t>mating</t>
+  </si>
+  <si>
+    <t>territorality</t>
+  </si>
+  <si>
+    <t>Barron et al 2015-1</t>
+  </si>
+  <si>
+    <t>Barron et al 2015-2</t>
+  </si>
+  <si>
+    <t>Batabyal and Thaker 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psammophilus dorsalis </t>
+  </si>
+  <si>
+    <t>yellow/orange</t>
+  </si>
+  <si>
+    <t>dorsal/ lateral</t>
+  </si>
+  <si>
+    <t>wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gasterosteus aculeatus </t>
+  </si>
+  <si>
+    <t>Baube 1997</t>
+  </si>
+  <si>
+    <t>dull red</t>
+  </si>
+  <si>
+    <t>bright red</t>
+  </si>
+  <si>
+    <t>captiity</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>Beck et al 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melospiza melodia </t>
+  </si>
+  <si>
+    <t>Beeching 1995</t>
+  </si>
+  <si>
+    <t>Atronotus ocellatus</t>
+  </si>
+  <si>
+    <t>olive green</t>
+  </si>
+  <si>
+    <t>dark brown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">year round </t>
+  </si>
+  <si>
+    <t>bite/charge</t>
+  </si>
+  <si>
+    <t>Beeching et al 1998</t>
+  </si>
+  <si>
+    <t>Cichlasoma nigrofasciatum</t>
+  </si>
+  <si>
+    <t>dull orange</t>
+  </si>
+  <si>
+    <t>bright orange</t>
+  </si>
+  <si>
+    <t>approach/bite</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Boerner and Kruger 2009</t>
+  </si>
+  <si>
+    <t>Buteo buteo</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>spring</t>
+  </si>
+  <si>
+    <t>Border et al 2019</t>
+  </si>
+  <si>
+    <t>Astatotilapia burtoni</t>
+  </si>
+  <si>
+    <t>yellow</t>
+  </si>
+  <si>
+    <t>chase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conf. int. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -409,6 +766,71 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="YpvhvqAdvTT50a2f13e.I"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNewRomanPS"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="AdvTT94c8263f.I"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="GulliverIT"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="AdvOTb92eb7df.I"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="AdvPS2A8F"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="AdvOTb92eb7df.I"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Code2000"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="AdvOTb92eb7df.I"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="TimesNRMT"/>
     </font>
   </fonts>
   <fills count="4">
@@ -443,13 +865,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -764,26 +1202,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D625BA0-D5D5-436F-AD3D-8112D7968760}">
-  <dimension ref="A1:AE192"/>
+  <dimension ref="A1:AE195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="15.31640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.04296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="17.5" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.04296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+    <row r="1" spans="1:31" ht="16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -878,7 +1320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" s="3" customFormat="1" ht="16" x14ac:dyDescent="0.8">
+    <row r="2" spans="1:31" s="3" customFormat="1" ht="16">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -922,1068 +1364,1973 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:31" s="3" customFormat="1" ht="16">
+      <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>2016</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="C3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="16">
       <c r="A4" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B4" s="1">
         <v>1996</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A5" s="1" t="s">
+      <c r="C4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" t="s">
+        <v>125</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4">
+        <v>18</v>
+      </c>
+      <c r="P4" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4">
+        <v>16.393000000000001</v>
+      </c>
+      <c r="R4">
+        <v>5</v>
+      </c>
+      <c r="S4">
+        <v>53</v>
+      </c>
+      <c r="T4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" s="13" customFormat="1" ht="16">
+      <c r="A5" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="12">
         <v>1990</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="C5" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="16">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B6" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="C6" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="I6" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="16">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B7" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="C7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="E7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I7" t="s">
+        <v>132</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M7" t="s">
+        <v>157</v>
+      </c>
+      <c r="N7" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7">
+        <v>1.8</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="16">
       <c r="A8" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B8" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="C8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F8" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" t="s">
+        <v>142</v>
+      </c>
+      <c r="J8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="O8">
+        <v>38</v>
+      </c>
+      <c r="P8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q8">
+        <v>2.95</v>
+      </c>
+      <c r="R8">
+        <v>3.2</v>
+      </c>
+      <c r="T8">
+        <v>8.5999999999999993E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="16">
       <c r="A9" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B9" s="1">
         <v>2013</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A10" s="1" t="s">
+      <c r="C9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>120</v>
+      </c>
+      <c r="J9" t="s">
+        <v>37</v>
+      </c>
+      <c r="K9" t="s">
+        <v>152</v>
+      </c>
+      <c r="L9" t="s">
+        <v>151</v>
+      </c>
+      <c r="M9" t="s">
+        <v>155</v>
+      </c>
+      <c r="O9">
+        <v>30</v>
+      </c>
+      <c r="P9" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q9">
+        <v>44.38</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>22</v>
+      </c>
+      <c r="T9" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="3" customFormat="1" ht="16">
+      <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>1997</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A11" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" s="3" customFormat="1" ht="16">
+      <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>2003</v>
       </c>
-    </row>
-    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.8">
+      <c r="C11" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="16">
       <c r="A12" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B12" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A13" s="1" t="s">
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" t="s">
+        <v>163</v>
+      </c>
+      <c r="H12" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12" t="s">
+        <v>38</v>
+      </c>
+      <c r="L12" t="s">
+        <v>39</v>
+      </c>
+      <c r="M12" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" t="s">
+        <v>164</v>
+      </c>
+      <c r="O12">
+        <v>30</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12">
+        <v>6.84</v>
+      </c>
+      <c r="T12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" s="3" customFormat="1" ht="16">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A14" s="1" t="s">
+      <c r="C13" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="3" customFormat="1" ht="18">
+      <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>2020</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A15" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O14" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" s="3" customFormat="1" ht="16">
+      <c r="A15" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>1992</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.8">
-      <c r="A16" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" s="3" customFormat="1" ht="16">
+      <c r="A16" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>1975</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A17" s="1" t="s">
+      <c r="C16" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" s="3" customFormat="1" ht="16">
+      <c r="A17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="2">
         <v>1982</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A18" s="1" t="s">
+      <c r="C17" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="13" customFormat="1" ht="16">
+      <c r="A18" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="12">
         <v>1994</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A19" s="1" t="s">
+      <c r="C18" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="R18" s="13">
+        <v>3</v>
+      </c>
+      <c r="S18" s="13">
+        <v>81</v>
+      </c>
+      <c r="T18" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="3" customFormat="1" ht="16">
+      <c r="A19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="2">
         <v>1976</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A20" s="1" t="s">
+      <c r="C19" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="O19" s="3">
+        <v>12</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" s="13" customFormat="1" ht="16">
+      <c r="A20" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="12">
+        <v>1976</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" s="13">
+        <v>12</v>
+      </c>
+      <c r="P20" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="T20" s="13">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="13" customFormat="1" ht="16">
+      <c r="A21" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="12">
+        <v>1976</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" s="13">
+        <v>12</v>
+      </c>
+      <c r="P21" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0.107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="16">
+      <c r="A22" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="1">
         <v>2015</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A21" s="1" t="s">
+      <c r="C22" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O22" s="13">
+        <v>64</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q22">
+        <v>4.03</v>
+      </c>
+      <c r="R22">
+        <v>1</v>
+      </c>
+      <c r="S22">
+        <v>44</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="16">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2015</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" s="13">
+        <v>64</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q23">
+        <v>2.27</v>
+      </c>
+      <c r="R23">
+        <v>1</v>
+      </c>
+      <c r="S23">
+        <v>44</v>
+      </c>
+      <c r="T23" s="13">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16">
+      <c r="A24" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B24" s="1">
         <v>2017</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A22" s="1" t="s">
+      <c r="C24" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O24" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="16">
+      <c r="A25" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B25" s="1">
         <v>1997</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A23" s="1" t="s">
+      <c r="C25" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="O25" s="13">
+        <v>170</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q25">
+        <v>10.741</v>
+      </c>
+      <c r="T25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="16">
+      <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B26" s="1">
         <v>2018</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A24" s="1" t="s">
+      <c r="C26" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="16">
+      <c r="A27" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B27" s="1">
         <v>1995</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A25" s="1" t="s">
+      <c r="C27" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" t="s">
+        <v>213</v>
+      </c>
+      <c r="F27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H27" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" t="s">
+        <v>37</v>
+      </c>
+      <c r="K27" t="s">
+        <v>38</v>
+      </c>
+      <c r="L27" t="s">
+        <v>39</v>
+      </c>
+      <c r="M27" t="s">
+        <v>215</v>
+      </c>
+      <c r="N27" t="s">
+        <v>216</v>
+      </c>
+      <c r="O27">
+        <v>14</v>
+      </c>
+      <c r="T27">
+        <v>2.63E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="16">
+      <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B28" s="1">
         <v>1998</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A26" s="1" t="s">
+      <c r="C28" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28" t="s">
+        <v>220</v>
+      </c>
+      <c r="H28" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" t="s">
+        <v>37</v>
+      </c>
+      <c r="K28" t="s">
+        <v>143</v>
+      </c>
+      <c r="L28" t="s">
+        <v>39</v>
+      </c>
+      <c r="M28" t="s">
+        <v>215</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28">
+        <v>13</v>
+      </c>
+      <c r="P28" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q28">
+        <v>0.86</v>
+      </c>
+      <c r="T28" t="s">
+        <v>126</v>
+      </c>
+      <c r="U28">
+        <v>-0.65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="16">
+      <c r="A29" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B29" s="1">
         <v>2009</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A27" s="1" t="s">
+      <c r="C29" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="D29" t="s">
+        <v>224</v>
+      </c>
+      <c r="E29" t="s">
+        <v>225</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H29" t="s">
+        <v>36</v>
+      </c>
+      <c r="J29" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" t="s">
+        <v>38</v>
+      </c>
+      <c r="L29" t="s">
+        <v>151</v>
+      </c>
+      <c r="M29" t="s">
+        <v>227</v>
+      </c>
+      <c r="N29" t="s">
+        <v>164</v>
+      </c>
+      <c r="O29">
+        <v>42</v>
+      </c>
+      <c r="P29" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q29">
+        <v>3.306</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>51</v>
+      </c>
+      <c r="T29">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="16">
+      <c r="A30" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B30" s="1">
         <v>2016</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A28" s="1" t="s">
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="1:21" ht="16">
+      <c r="A31" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B31" s="1">
         <v>2019</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A29" s="1" t="s">
+      <c r="C31" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D31" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" t="s">
+        <v>156</v>
+      </c>
+      <c r="H31" t="s">
+        <v>36</v>
+      </c>
+      <c r="J31" t="s">
+        <v>37</v>
+      </c>
+      <c r="K31" t="s">
+        <v>152</v>
+      </c>
+      <c r="L31" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
+        <v>231</v>
+      </c>
+      <c r="O31">
+        <v>12</v>
+      </c>
+      <c r="P31" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q31">
+        <v>1.29</v>
+      </c>
+      <c r="T31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="16">
+      <c r="A32" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B32" s="1">
         <v>1981</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A30" s="1" t="s">
+      <c r="C32" s="13"/>
+    </row>
+    <row r="33" spans="1:3" ht="16">
+      <c r="A33" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B33" s="1">
         <v>1979</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A31" s="1" t="s">
+      <c r="C33" s="13"/>
+    </row>
+    <row r="34" spans="1:3" ht="16">
+      <c r="A34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B34" s="1">
         <v>1991</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A32" s="1" t="s">
+    <row r="35" spans="1:3" ht="16">
+      <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B35" s="1">
         <v>1992</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A33" s="1" t="s">
+    <row r="36" spans="1:3" ht="16">
+      <c r="A36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B36" s="1">
         <v>2019</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A34" s="1" t="s">
+    <row r="37" spans="1:3" ht="16">
+      <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B37" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A35" s="1" t="s">
+    <row r="38" spans="1:3" ht="16">
+      <c r="A38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B38" s="1">
         <v>2013</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A36" s="1" t="s">
+    <row r="39" spans="1:3" ht="16">
+      <c r="A39" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A38" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A39" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="B39" s="1">
         <v>2002</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="16" x14ac:dyDescent="0.8">
+    <row r="40" spans="1:3" ht="16">
       <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="16">
+      <c r="A41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="16">
+      <c r="A42" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="16">
+      <c r="A43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B43" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A41" s="1" t="s">
+    <row r="44" spans="1:3" ht="16">
+      <c r="A44" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B44" s="1">
         <v>2016</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A42" s="1" t="s">
+    <row r="45" spans="1:3" ht="16">
+      <c r="A45" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B45" s="1">
         <v>2009</v>
       </c>
     </row>
-    <row r="43" spans="1:3" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.8">
-      <c r="A43" s="4" t="s">
+    <row r="46" spans="1:3" s="5" customFormat="1" ht="16">
+      <c r="A46" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="B43" s="4">
+      <c r="B46" s="4">
         <v>2003</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C46" s="5" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A44" s="1" t="s">
+    <row r="47" spans="1:3" ht="16">
+      <c r="A47" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B47" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A45" s="1" t="s">
+    <row r="48" spans="1:3" ht="16">
+      <c r="A48" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B48" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A46" s="1" t="s">
+    <row r="49" spans="1:2" ht="16">
+      <c r="A49" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A47" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B47" s="1">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="16" x14ac:dyDescent="0.8">
-      <c r="A48" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A49" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="B49" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="50" spans="1:2" ht="16">
       <c r="A50" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="16">
+      <c r="A51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="16">
+      <c r="A52" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="16">
+      <c r="A53" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B53" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A51" s="1" t="s">
+    <row r="54" spans="1:2" ht="16">
+      <c r="A54" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B54" s="1">
         <v>1981</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A52" s="1" t="s">
+    <row r="55" spans="1:2" ht="16">
+      <c r="A55" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B55" s="1">
         <v>1998</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A53" s="1" t="s">
+    <row r="56" spans="1:2" ht="16">
+      <c r="A56" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B56" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A54" s="1" t="s">
+    <row r="57" spans="1:2" ht="16">
+      <c r="A57" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B57" s="1">
         <v>2006</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A55" s="1" t="s">
+    <row r="58" spans="1:2" ht="16">
+      <c r="A58" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B58" s="1">
         <v>2003</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A56" s="1" t="s">
+    <row r="59" spans="1:2" ht="16">
+      <c r="A59" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B59" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A57" s="1" t="s">
+    <row r="60" spans="1:2" ht="16">
+      <c r="A60" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B60" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A58" s="1" t="s">
+    <row r="61" spans="1:2" ht="16">
+      <c r="A61" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B61" s="1">
         <v>1993</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A59" s="1" t="s">
+    <row r="62" spans="1:2" ht="16">
+      <c r="A62" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B62" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A60" s="1" t="s">
+    <row r="63" spans="1:2" ht="16">
+      <c r="A63" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B63" s="1">
         <v>2004</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A61" s="1" t="s">
+    <row r="64" spans="1:2" ht="16">
+      <c r="A64" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B64" s="1">
         <v>2004</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A62" s="1" t="s">
+    <row r="65" spans="1:2" ht="16">
+      <c r="A65" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B65" s="1">
         <v>2015</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A63" s="1" t="s">
+    <row r="66" spans="1:2" ht="16">
+      <c r="A66" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B66" s="1">
         <v>2014</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A64" s="1" t="s">
+    <row r="67" spans="1:2" ht="16">
+      <c r="A67" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B67" s="1">
         <v>2010</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A65" s="1" t="s">
+    <row r="68" spans="1:2" ht="16">
+      <c r="A68" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="B65" s="1">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A66" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="B66" s="1">
-        <v>2010</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A67" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="1">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A68" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="B68" s="1">
         <v>2011</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="69" spans="1:2" ht="16">
       <c r="A69" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B69" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="16">
+      <c r="A70" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="16">
+      <c r="A71" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B71" s="1">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="16">
+      <c r="A72" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B72" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A70" s="1" t="s">
+    <row r="73" spans="1:2" ht="16">
+      <c r="A73" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B73" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A71" s="1" t="s">
+    <row r="74" spans="1:2" ht="16">
+      <c r="A74" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B74" s="1">
         <v>2007</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A72" s="1" t="s">
+    <row r="75" spans="1:2" ht="16">
+      <c r="A75" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B75" s="1">
         <v>2008</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A73" s="1" t="s">
+    <row r="76" spans="1:2" ht="16">
+      <c r="A76" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B76" s="1">
         <v>2002</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A74" s="1" t="s">
+    <row r="77" spans="1:2" ht="16">
+      <c r="A77" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B77" s="1">
         <v>2018</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A75" s="1" t="s">
+    <row r="78" spans="1:2" ht="16">
+      <c r="A78" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B78" s="1">
         <v>1988</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A76" s="1" t="s">
+    <row r="79" spans="1:2" ht="16">
+      <c r="A79" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B79" s="1">
         <v>2012</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A77" s="1" t="s">
+    <row r="80" spans="1:2" ht="16">
+      <c r="A80" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B80" s="1">
         <v>1995</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A78" s="1"/>
-      <c r="B78" s="1"/>
-    </row>
-    <row r="79" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A79" s="1"/>
-      <c r="B79" s="1"/>
-    </row>
-    <row r="80" spans="1:2" ht="16" x14ac:dyDescent="0.8">
-      <c r="A80" s="1"/>
-      <c r="B80" s="1"/>
-    </row>
-    <row r="81" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="81" spans="1:2" ht="16">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="82" spans="1:2" ht="16">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="83" spans="1:2" ht="16">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="84" spans="1:2" ht="16">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="85" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="85" spans="1:2" ht="16">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
     </row>
-    <row r="86" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="86" spans="1:2" ht="16">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
     </row>
-    <row r="87" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="87" spans="1:2" ht="16">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
     </row>
-    <row r="88" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="88" spans="1:2" ht="16">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
     </row>
-    <row r="89" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="89" spans="1:2" ht="16">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
     </row>
-    <row r="90" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="90" spans="1:2" ht="16">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
     </row>
-    <row r="91" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="91" spans="1:2" ht="16">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
     </row>
-    <row r="92" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="92" spans="1:2" ht="16">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
     </row>
-    <row r="93" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="93" spans="1:2" ht="16">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
     </row>
-    <row r="94" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="94" spans="1:2" ht="16">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
     </row>
-    <row r="95" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="95" spans="1:2" ht="16">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
     </row>
-    <row r="96" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="96" spans="1:2" ht="16">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
     </row>
-    <row r="97" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="97" spans="1:2" ht="16">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
     </row>
-    <row r="98" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="98" spans="1:2" ht="16">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
     </row>
-    <row r="99" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="99" spans="1:2" ht="16">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="100" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="100" spans="1:2" ht="16">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="101" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="101" spans="1:2" ht="16">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
     </row>
-    <row r="102" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="102" spans="1:2" ht="16">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
     </row>
-    <row r="103" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="103" spans="1:2" ht="16">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
     </row>
-    <row r="104" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="104" spans="1:2" ht="16">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
     </row>
-    <row r="105" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="105" spans="1:2" ht="16">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="106" spans="1:2" ht="16">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="107" spans="1:2" ht="16">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="108" spans="1:2" ht="16">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="109" spans="1:2" ht="16">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="110" spans="1:2" ht="16">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="111" spans="1:2" ht="16">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="112" spans="1:2" ht="16">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
     </row>
-    <row r="113" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="113" spans="1:2" ht="16">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
     </row>
-    <row r="114" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="114" spans="1:2" ht="16">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
     </row>
-    <row r="115" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="115" spans="1:2" ht="16">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="116" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="116" spans="1:2" ht="16">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="117" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="117" spans="1:2" ht="16">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
     </row>
-    <row r="118" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="118" spans="1:2" ht="16">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
     </row>
-    <row r="119" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="119" spans="1:2" ht="16">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
     </row>
-    <row r="120" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="120" spans="1:2" ht="16">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
     </row>
-    <row r="121" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="121" spans="1:2" ht="16">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
     </row>
-    <row r="122" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="122" spans="1:2" ht="16">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
     </row>
-    <row r="123" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="123" spans="1:2" ht="16">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
     </row>
-    <row r="124" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="124" spans="1:2" ht="16">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
     </row>
-    <row r="125" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="125" spans="1:2" ht="16">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
     </row>
-    <row r="126" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="126" spans="1:2" ht="16">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
     </row>
-    <row r="127" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="127" spans="1:2" ht="16">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
     </row>
-    <row r="128" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="128" spans="1:2" ht="16">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="129" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="129" spans="1:2" ht="16">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="130" spans="1:2" ht="16">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
     </row>
-    <row r="131" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="131" spans="1:2" ht="16">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
     </row>
-    <row r="132" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="132" spans="1:2" ht="16">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
     </row>
-    <row r="133" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="133" spans="1:2" ht="16">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
     </row>
-    <row r="134" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="134" spans="1:2" ht="16">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="135" spans="1:2" ht="16">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
     </row>
-    <row r="136" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="136" spans="1:2" ht="16">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="137" spans="1:2" ht="16">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
     </row>
-    <row r="138" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="138" spans="1:2" ht="16">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
     </row>
-    <row r="139" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="139" spans="1:2" ht="16">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
     </row>
-    <row r="140" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="140" spans="1:2" ht="16">
       <c r="A140" s="1"/>
       <c r="B140" s="1"/>
     </row>
-    <row r="141" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="141" spans="1:2" ht="16">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
     </row>
-    <row r="142" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="142" spans="1:2" ht="16">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
     </row>
-    <row r="143" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="143" spans="1:2" ht="16">
       <c r="A143" s="1"/>
       <c r="B143" s="1"/>
     </row>
-    <row r="144" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="144" spans="1:2" ht="16">
       <c r="A144" s="1"/>
       <c r="B144" s="1"/>
     </row>
-    <row r="145" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="145" spans="1:2" ht="16">
       <c r="A145" s="1"/>
       <c r="B145" s="1"/>
     </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="146" spans="1:2" ht="16">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="147" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="147" spans="1:2" ht="16">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="148" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="148" spans="1:2" ht="16">
       <c r="A148" s="1"/>
       <c r="B148" s="1"/>
     </row>
-    <row r="149" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="149" spans="1:2" ht="16">
       <c r="A149" s="1"/>
       <c r="B149" s="1"/>
     </row>
-    <row r="150" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="150" spans="1:2" ht="16">
       <c r="A150" s="1"/>
       <c r="B150" s="1"/>
     </row>
-    <row r="151" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="151" spans="1:2" ht="16">
       <c r="A151" s="1"/>
       <c r="B151" s="1"/>
     </row>
-    <row r="152" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="152" spans="1:2" ht="16">
       <c r="A152" s="1"/>
       <c r="B152" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="153" spans="1:2" ht="16">
       <c r="A153" s="1"/>
       <c r="B153" s="1"/>
     </row>
-    <row r="154" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="154" spans="1:2" ht="16">
       <c r="A154" s="1"/>
       <c r="B154" s="1"/>
     </row>
-    <row r="155" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="155" spans="1:2" ht="16">
       <c r="A155" s="1"/>
       <c r="B155" s="1"/>
     </row>
-    <row r="156" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="156" spans="1:2" ht="16">
       <c r="A156" s="1"/>
       <c r="B156" s="1"/>
     </row>
-    <row r="157" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="157" spans="1:2" ht="16">
       <c r="A157" s="1"/>
       <c r="B157" s="1"/>
     </row>
-    <row r="158" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="158" spans="1:2" ht="16">
       <c r="A158" s="1"/>
       <c r="B158" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="159" spans="1:2" ht="16">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="160" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="160" spans="1:2" ht="16">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="161" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="161" spans="1:2" ht="16">
       <c r="A161" s="1"/>
       <c r="B161" s="1"/>
     </row>
-    <row r="162" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="162" spans="1:2" ht="16">
       <c r="A162" s="1"/>
       <c r="B162" s="1"/>
     </row>
-    <row r="163" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="163" spans="1:2" ht="16">
       <c r="A163" s="1"/>
       <c r="B163" s="1"/>
     </row>
-    <row r="164" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="164" spans="1:2" ht="16">
       <c r="A164" s="1"/>
       <c r="B164" s="1"/>
     </row>
-    <row r="165" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="165" spans="1:2" ht="16">
       <c r="A165" s="1"/>
       <c r="B165" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="166" spans="1:2" ht="16">
       <c r="A166" s="1"/>
       <c r="B166" s="1"/>
     </row>
-    <row r="167" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="167" spans="1:2" ht="16">
       <c r="A167" s="1"/>
       <c r="B167" s="1"/>
     </row>
-    <row r="168" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="168" spans="1:2" ht="16">
       <c r="A168" s="1"/>
       <c r="B168" s="1"/>
     </row>
-    <row r="169" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="169" spans="1:2" ht="16">
       <c r="A169" s="1"/>
       <c r="B169" s="1"/>
     </row>
-    <row r="170" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="170" spans="1:2" ht="16">
       <c r="A170" s="1"/>
       <c r="B170" s="1"/>
     </row>
-    <row r="171" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="171" spans="1:2" ht="16">
       <c r="A171" s="1"/>
       <c r="B171" s="1"/>
     </row>
-    <row r="172" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="172" spans="1:2" ht="16">
       <c r="A172" s="1"/>
       <c r="B172" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="173" spans="1:2" ht="16">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="174" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="174" spans="1:2" ht="16">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="175" spans="1:2" ht="16">
       <c r="A175" s="1"/>
       <c r="B175" s="1"/>
     </row>
-    <row r="176" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="176" spans="1:2" ht="16">
       <c r="A176" s="1"/>
       <c r="B176" s="1"/>
     </row>
-    <row r="177" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="177" spans="1:2" ht="16">
       <c r="A177" s="1"/>
       <c r="B177" s="1"/>
     </row>
-    <row r="178" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="178" spans="1:2" ht="16">
       <c r="A178" s="1"/>
       <c r="B178" s="1"/>
     </row>
-    <row r="179" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="179" spans="1:2" ht="16">
       <c r="A179" s="1"/>
       <c r="B179" s="1"/>
     </row>
-    <row r="180" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="180" spans="1:2" ht="16">
       <c r="A180" s="1"/>
       <c r="B180" s="1"/>
     </row>
-    <row r="181" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="181" spans="1:2" ht="16">
       <c r="A181" s="1"/>
       <c r="B181" s="1"/>
     </row>
-    <row r="182" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="182" spans="1:2" ht="16">
       <c r="A182" s="1"/>
       <c r="B182" s="1"/>
     </row>
-    <row r="183" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="183" spans="1:2" ht="16">
       <c r="A183" s="1"/>
       <c r="B183" s="1"/>
     </row>
-    <row r="184" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="184" spans="1:2" ht="16">
       <c r="A184" s="1"/>
       <c r="B184" s="1"/>
     </row>
-    <row r="185" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="185" spans="1:2" ht="16">
       <c r="A185" s="1"/>
       <c r="B185" s="1"/>
     </row>
-    <row r="186" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="186" spans="1:2" ht="16">
       <c r="A186" s="1"/>
       <c r="B186" s="1"/>
     </row>
-    <row r="187" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="187" spans="1:2" ht="16">
       <c r="A187" s="1"/>
       <c r="B187" s="1"/>
     </row>
-    <row r="188" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="188" spans="1:2" ht="16">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="189" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="189" spans="1:2" ht="16">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="190" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="190" spans="1:2" ht="16">
       <c r="A190" s="1"/>
       <c r="B190" s="1"/>
     </row>
-    <row r="191" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="191" spans="1:2" ht="16">
       <c r="A191" s="1"/>
       <c r="B191" s="1"/>
     </row>
-    <row r="192" spans="1:2" ht="16" x14ac:dyDescent="0.8">
+    <row r="192" spans="1:2" ht="16">
       <c r="A192" s="1"/>
       <c r="B192" s="1"/>
+    </row>
+    <row r="193" spans="1:2" ht="16">
+      <c r="A193" s="1"/>
+      <c r="B193" s="1"/>
+    </row>
+    <row r="194" spans="1:2" ht="16">
+      <c r="A194" s="1"/>
+      <c r="B194" s="1"/>
+    </row>
+    <row r="195" spans="1:2" ht="16">
+      <c r="A195" s="1"/>
+      <c r="B195" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
